--- a/labo2/balance_masas.xlsx
+++ b/labo2/balance_masas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\produccion_acetato_etilo\labo2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Unit_Operations_II\labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4EE6A0-6941-49CB-BF47-9DEEE1614960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500FD6F-6EAE-4A50-B836-DCCA6421A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="384" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F1:F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -428,7 +428,7 @@
         <v>25.89</v>
       </c>
       <c r="D2" s="1">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="2">
         <v>62.2</v>
@@ -446,7 +446,7 @@
         <v>26.5</v>
       </c>
       <c r="D3" s="1">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="2">
         <v>62.6</v>
@@ -464,7 +464,7 @@
         <v>25.875</v>
       </c>
       <c r="D4" s="1">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="E4" s="2">
         <v>64.099999999999994</v>

--- a/labo2/balance_masas.xlsx
+++ b/labo2/balance_masas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Unit_Operations_II\labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500FD6F-6EAE-4A50-B836-DCCA6421A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37489A66-044A-4C44-8C96-D2AD132C1D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1284" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,16 +422,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>16.693999999999999</v>
+        <v>16.986000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>25.89</v>
+        <v>26.5</v>
       </c>
       <c r="D2" s="1">
         <v>0.01</v>
       </c>
       <c r="E2" s="2">
-        <v>62.2</v>
+        <v>62.6</v>
       </c>
       <c r="F2" s="1"/>
     </row>
@@ -440,36 +440,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>16.986000000000001</v>
+        <v>16.728000000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>26.5</v>
+        <v>25.875</v>
       </c>
       <c r="D3" s="1">
         <v>0.01</v>
       </c>
       <c r="E3" s="2">
-        <v>62.6</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>16.728000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25.875</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="2">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/labo2/balance_masas.xlsx
+++ b/labo2/balance_masas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Unit_Operations_II\labo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37489A66-044A-4C44-8C96-D2AD132C1D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB3DC3-E7F7-4F58-A07D-28FB28951E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1284" windowWidth="19200" windowHeight="7344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -72,6 +72,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -103,12 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -391,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="H3:I3"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,39 +428,57 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>16.986000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26.5</v>
-      </c>
-      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
+        <v>16.693999999999999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>26.29</v>
+      </c>
+      <c r="D2" s="3">
         <v>0.01</v>
       </c>
-      <c r="E2" s="2">
-        <v>62.6</v>
+      <c r="E2" s="3">
+        <v>62.2</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>16.728000000000002</v>
+        <v>16.986000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>25.875</v>
+        <v>26.5</v>
       </c>
       <c r="D3" s="1">
         <v>0.01</v>
       </c>
       <c r="E3" s="2">
+        <v>62.6</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>16.728000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25.875</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E4" s="2">
         <v>64.099999999999994</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
